--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="5370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="2640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId2"/>
     <sheet name="OpenAccountTest" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>firstname</t>
   </si>
@@ -87,15 +88,12 @@
   </si>
   <si>
     <t>OpenAccountTest</t>
-  </si>
-  <si>
-    <t>runmode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -399,14 +397,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -453,11 +451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,9 +476,6 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -495,9 +490,6 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -512,9 +504,6 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -529,9 +518,6 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -545,9 +531,6 @@
       </c>
       <c r="D5" t="s">
         <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -556,7 +539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
